--- a/Design/Excel/GameHot/Datas/Game/UI.xlsx
+++ b/Design/Excel/GameHot/Datas/Game/UI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>string&amp;group=ge</t>
+  </si>
+  <si>
+    <t>string#path=normal;UI/UIForm/*.prefab</t>
   </si>
   <si>
     <t>string</t>
@@ -1155,7 +1158,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1164,7 +1167,7 @@
     <col min="2" max="2" width="19.3727272727273" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.7545454545455" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7545454545455" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.1818181818182" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.6272727272727" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.1272727272727" style="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="1" customWidth="1"/>
@@ -1214,39 +1217,39 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1254,16 +1257,16 @@
         <v>801</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>0</v>
@@ -1277,16 +1280,16 @@
         <v>802</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
@@ -1300,16 +1303,16 @@
         <v>803</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>0</v>
@@ -1323,16 +1326,16 @@
         <v>901</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>0</v>
@@ -1346,16 +1349,16 @@
         <v>902</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="b">
         <v>0</v>
@@ -1369,16 +1372,16 @@
         <v>903</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="b">
         <v>0</v>
@@ -1392,16 +1395,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="b">
         <v>1</v>
@@ -1415,16 +1418,16 @@
         <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3" t="b">
         <v>0</v>
@@ -1438,16 +1441,16 @@
         <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" s="3" t="b">
         <v>0</v>
@@ -1461,16 +1464,16 @@
         <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3" t="b">
         <v>0</v>
